--- a/BalanceSheet/CSGP_bal.xlsx
+++ b/BalanceSheet/CSGP_bal.xlsx
@@ -1727,19 +1727,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-63051000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>53505000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>9548000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>22229000.0</v>
+        <v>27000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>15564000.0</v>
+        <v>22000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>7640000.0</v>
@@ -3014,19 +3014,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>5464000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-18342000.0</v>
+        <v>68000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>3243000.0</v>
+        <v>93000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>744000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2825000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>87096000.0</v>
@@ -4781,7 +4781,7 @@
         <v>-1038000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-921000000.0</v>
+        <v>-920731000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>-1389619000.0</v>
